--- a/biology/Zoologie/Amarante_du_Sénégal/Amarante_du_Sénégal.xlsx
+++ b/biology/Zoologie/Amarante_du_Sénégal/Amarante_du_Sénégal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amarante_du_S%C3%A9n%C3%A9gal</t>
+          <t>Amarante_du_Sénégal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagonosticta senegala
 L'Amarante du Sénégal (Lagonosticta senegala) est une espèce de passereaux appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amarante_du_S%C3%A9n%C3%A9gal</t>
+          <t>Amarante_du_Sénégal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 9 cm de longueur. Il présente un dimorphisme sexuel.
 Le mâle a un plumage globalement cramoisi avec le bec rouge, les côtés de la poitrine légèrement tachetés de blanc et les ailes et la queue marron clair.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amarante_du_S%C3%A9n%C3%A9gal</t>
+          <t>Amarante_du_Sénégal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Afrique subsaharienne (rare en Afrique équatoriale).
-L'Amarante du Sénégal figure aussi sur un timbre d'Algérie de 1976 sous le nom de cherchour qui désigne aussi le pinson. Introduit à Tamanrasset au milieu du XXes, il prolifère dans le Hoggar[1]
+L'Amarante du Sénégal figure aussi sur un timbre d'Algérie de 1976 sous le nom de cherchour qui désigne aussi le pinson. Introduit à Tamanrasset au milieu du XXes, il prolifère dans le Hoggar
 C'est en effet une espèce largement exploitée par l'oisellerie mondiale : des milliers exportés du Sénégal vers les États-Unis dans les années 1980.
-Au Sénégal, cette espèce est considérée comme un porte-bonheur, sous le nom de Ramatou ou Ramantu[2].
+Au Sénégal, cette espèce est considérée comme un porte-bonheur, sous le nom de Ramatou ou Ramantu.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amarante_du_S%C3%A9n%C3%A9gal</t>
+          <t>Amarante_du_Sénégal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans les milieux cultivés et les villages.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amarante_du_S%C3%A9n%C3%A9gal</t>
+          <t>Amarante_du_Sénégal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +629,19 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par huit sous-espèces :
-Lagonosticta senegala brunneiceps (Sharpe, 1890)[3];
+Lagonosticta senegala brunneiceps (Sharpe, 1890);
 Lagonosticta senegala guineensi ;
-Lagonosticta senegala pallidicrissa (Hartert, 1898)[4];
+Lagonosticta senegala pallidicrissa (Hartert, 1898);
 Lagonosticta senegala rendalli ;
 Lagonosticta senegala rhodopsis ;
-Lagonosticta senegala ruberrima (Reichenow, 1903)[5];
+Lagonosticta senegala ruberrima (Reichenow, 1903);
 Lagonosticta senegala senegala ;
-Lagonosticta senegala somaliensis (Salvadori, 1894)[6];</t>
+Lagonosticta senegala somaliensis (Salvadori, 1894);</t>
         </is>
       </c>
     </row>
